--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2058545.014843444</v>
+        <v>2132482.412660089</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6473645.874733097</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3142196.595495698</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6953108.372250477</v>
+        <v>7252303.141472841</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>185.8612822324002</v>
       </c>
       <c r="D2" t="n">
-        <v>193.8988003783523</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>66.17949358308059</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>30.25960733309677</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>168.6753793373327</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -911,7 +913,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>230.4260646570442</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>68.8236842276938</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>117.0302840219879</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>234.136179312505</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1145,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>362.464952808815</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1196,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12.32670418612418</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1306,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>212.7440501992508</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>71.22067439694567</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1534,7 +1536,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.63757200278755</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>228.8620284299716</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1622,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>77.30991951441474</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1673,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>108.5112409236472</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1856,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>120.179097853704</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -2020,7 +2022,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.1971184220298</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>211.6544656203731</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2132,16 +2134,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>157.4229911737226</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2242,22 +2244,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>71.57404315244223</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>106.1194605417157</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2476,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>42.43741174507669</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>85.17352968613943</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2621,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>44.21277235333793</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2773,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.39473383330535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>153.2108245344602</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3007,10 +3009,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>271.0640515220193</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>317.5475256392241</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3187,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>119.5236191444601</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>12.68843489334748</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3278,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>28.14365152238175</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>31.42227043795236</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>66.77178258905937</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3715,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>149.845198710546</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>85.02361445911964</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3898,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>112.2883871699918</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3955,13 +3957,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>180.6077930059081</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3986,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>220.0543241761433</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>106.9706214097036</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>679.7247499512512</v>
+        <v>261.9049799331252</v>
       </c>
       <c r="C2" t="n">
-        <v>269.6001592645213</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D2" t="n">
         <v>73.74278514497341</v>
@@ -4328,28 +4330,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4367,13 +4369,13 @@
         <v>1473.706230480572</v>
       </c>
       <c r="W2" t="n">
-        <v>1089.945929615741</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X2" t="n">
-        <v>1089.945929615741</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y2" t="n">
-        <v>1089.945929615741</v>
+        <v>672.1261595976147</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>219.3581718355396</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>1708.850297433489</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N3" t="n">
-        <v>1708.850297433489</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4452,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.8119591581028</v>
+        <v>273.2441848352538</v>
       </c>
       <c r="C4" t="n">
-        <v>307.7185867198193</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D4" t="n">
-        <v>307.7185867198193</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E4" t="n">
-        <v>307.7185867198193</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4516,22 +4518,22 @@
         <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.342524902554</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1215.777264970133</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V4" t="n">
-        <v>941.8915199096546</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="W4" t="n">
-        <v>941.8915199096546</v>
+        <v>924.02345198085</v>
       </c>
       <c r="X4" t="n">
-        <v>703.547657769338</v>
+        <v>685.6795898405335</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.8119591581028</v>
+        <v>460.9438912292982</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>717.0445023619199</v>
+        <v>654.2465468795142</v>
       </c>
       <c r="C5" t="n">
-        <v>710.960315715594</v>
+        <v>244.1219561927843</v>
       </c>
       <c r="D5" t="n">
-        <v>306.4963858086545</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>296.1965743659553</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>279.2065663600468</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>274.5186862932831</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4580,37 +4582,37 @@
         <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1123.868675817053</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1123.868675817053</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>723.2252779860053</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y5" t="n">
-        <v>723.2252779860053</v>
+        <v>1064.467726544004</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>704.7239474634679</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>704.7239474634679</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>870.0297917726316</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="C7" t="n">
-        <v>870.0297917726316</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F7" t="n">
         <v>474.9689777942758</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V7" t="n">
-        <v>1057.729498166676</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.729498166676</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="X7" t="n">
-        <v>1057.729498166676</v>
+        <v>662.6686841883202</v>
       </c>
       <c r="Y7" t="n">
-        <v>1057.729498166676</v>
+        <v>662.6686841883202</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1641.023871341262</v>
+        <v>2499.363348604062</v>
       </c>
       <c r="C8" t="n">
-        <v>1230.899280654532</v>
+        <v>2089.238757917332</v>
       </c>
       <c r="D8" t="n">
-        <v>994.398089429779</v>
+        <v>1684.774828010392</v>
       </c>
       <c r="E8" t="n">
-        <v>580.0578739466757</v>
+        <v>1270.434612527289</v>
       </c>
       <c r="F8" t="n">
-        <v>159.0274619003632</v>
+        <v>849.4042004809767</v>
       </c>
       <c r="G8" t="n">
-        <v>154.3395818335995</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>154.3395818335995</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J8" t="n">
-        <v>257.4227964971257</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>795.5822976061652</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.173697418403</v>
+        <v>1236.881458916954</v>
       </c>
       <c r="M8" t="n">
-        <v>2284.492288410157</v>
+        <v>2013.200049908708</v>
       </c>
       <c r="N8" t="n">
-        <v>3037.673305048775</v>
+        <v>2766.381066547326</v>
       </c>
       <c r="O8" t="n">
-        <v>3037.673305048775</v>
+        <v>3410.011922964431</v>
       </c>
       <c r="P8" t="n">
-        <v>3037.673305048775</v>
+        <v>3939.168620883582</v>
       </c>
       <c r="Q8" t="n">
-        <v>3358.834311844067</v>
+        <v>4260.329627678874</v>
       </c>
       <c r="R8" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="S8" t="n">
-        <v>3264.109882327733</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="T8" t="n">
-        <v>3041.903398274592</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="U8" t="n">
-        <v>2784.842906534102</v>
+        <v>4043.825781627949</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.005351870583</v>
+        <v>3693.98822696443</v>
       </c>
       <c r="W8" t="n">
-        <v>2051.245051005751</v>
+        <v>3310.227926099598</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.245051005751</v>
+        <v>2909.584528268551</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.245051005751</v>
+        <v>2909.584528268551</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>746.818661037207</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>612.8235897861528</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>495.9264320055452</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>375.4336159978732</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>266.4737361803777</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>159.4836234947164</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>88.73641053043247</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J9" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="K9" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="L9" t="n">
-        <v>498.969567282765</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="M9" t="n">
-        <v>498.969567282765</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="N9" t="n">
-        <v>498.969567282765</v>
+        <v>1802.652898273553</v>
       </c>
       <c r="O9" t="n">
-        <v>1202.926657828659</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>1764.632550317189</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2114.477015001173</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2114.477015001173</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2006.487005115482</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1847.14514130249</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1649.794330440709</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1436.082803433742</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1222.849635170071</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1046.523653308964</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>887.1216936727936</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>399.869336114538</v>
+        <v>1016.709419679842</v>
       </c>
       <c r="C10" t="n">
-        <v>399.869336114538</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>399.869336114538</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>399.869336114538</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>235.2382102251292</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>67.98781915067264</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>67.98781915067264</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J10" t="n">
-        <v>82.07036855588316</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>236.6226962781211</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>496.5197965581817</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>785.783852998675</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1066.622635392925</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1326.1832457194</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1531.858685969012</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1597.386715771523</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1597.386715771523</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1410.994947651433</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="T10" t="n">
-        <v>1171.446208628135</v>
+        <v>1290.59516474032</v>
       </c>
       <c r="U10" t="n">
-        <v>888.6480611742593</v>
+        <v>1290.59516474032</v>
       </c>
       <c r="V10" t="n">
-        <v>614.7623161137813</v>
+        <v>1016.709419679842</v>
       </c>
       <c r="W10" t="n">
-        <v>399.869336114538</v>
+        <v>1016.709419679842</v>
       </c>
       <c r="X10" t="n">
-        <v>399.869336114538</v>
+        <v>1016.709419679842</v>
       </c>
       <c r="Y10" t="n">
-        <v>399.869336114538</v>
+        <v>1016.709419679842</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>989.7102093630152</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>989.7102093630152</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>989.7102093630152</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>575.3699938799119</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>154.3395818335995</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>154.3395818335995</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H11" t="n">
-        <v>154.3395818335995</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>67.98781915067264</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>606.1473202597122</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1318.73872007195</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2095.057311063704</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2394.04244863167</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3037.673305048775</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3037.673305048775</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3358.834311844067</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3264.109882327733</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3192.169807179303</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2935.109315438813</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2585.271760775294</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2201.511459910462</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>1800.868062079415</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1399.931389027505</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>569.1706624657045</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1410.519924455278</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.433682535046</v>
+        <v>732.3145881425788</v>
       </c>
       <c r="C13" t="n">
-        <v>544.3403100967626</v>
+        <v>561.2212157042953</v>
       </c>
       <c r="D13" t="n">
-        <v>384.8456654196726</v>
+        <v>401.7265710272054</v>
       </c>
       <c r="E13" t="n">
-        <v>384.8456654196726</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F13" t="n">
-        <v>384.8456654196726</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G13" t="n">
-        <v>217.595274345216</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H13" t="n">
-        <v>67.98781915067264</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>82.07036855588316</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>236.6226962781211</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>496.5197965581817</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>785.783852998675</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1066.622635392925</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1326.1832457194</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1531.858685969012</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1597.386715771523</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1597.386715771523</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>1366.212949680642</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W13" t="n">
-        <v>1366.212949680642</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.869087540326</v>
+        <v>1144.749993147859</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.1333889290904</v>
+        <v>920.0142945366232</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2126.675251380926</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C14" t="n">
-        <v>1716.550660694196</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1312.086730787256</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>897.7465153041529</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>476.7161032578405</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>67.98781915067264</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>67.98781915067264</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>67.98781915067264</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>606.1473202597122</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1318.73872007195</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2095.057311063704</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2848.238327702322</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3399.390957533632</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3399.390957533632</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3399.390957533632</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3321.300129741294</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2937.539828876462</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2536.896431045415</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2536.896431045415</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>569.1706624657045</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>1410.519924455278</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1099.678592441643</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>928.5852200033592</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>769.0905753262691</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>608.1797601945887</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>443.5486343051799</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>333.9413202408898</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>184.3338650463465</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>82.07036855588316</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>236.6226962781211</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>496.5197965581817</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>785.783852998675</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1066.622635392925</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1326.1832457194</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1531.858685969012</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1512.113997446922</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1512.113997446922</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1512.113997446922</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.113997446922</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>1512.113997446922</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>1512.113997446922</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>1512.113997446922</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y16" t="n">
-        <v>1287.378298835687</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J17" t="n">
         <v>347.4291691583771</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>3084.569701873628</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>3958.227793985246</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>740.6895610749962</v>
+        <v>971.9663885568499</v>
       </c>
       <c r="C19" t="n">
-        <v>569.5961886367127</v>
+        <v>971.9663885568499</v>
       </c>
       <c r="D19" t="n">
-        <v>410.1015439596227</v>
+        <v>812.47174387976</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1015439596227</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>410.1015439596227</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.749993147859</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="Y19" t="n">
-        <v>928.3892674690405</v>
+        <v>971.9663885568499</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>393.3878498890781</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J20" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5780,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4367.890686927541</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4110.830195187051</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3760.992640523532</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3569.83286143879</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C22" t="n">
-        <v>3398.739489000507</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D22" t="n">
-        <v>3398.739489000507</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E22" t="n">
-        <v>3398.739489000507</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F22" t="n">
-        <v>3398.739489000507</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4504.615152921244</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>4265.066413897945</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>3982.26826644407</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V22" t="n">
-        <v>3982.26826644407</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W22" t="n">
-        <v>3982.26826644407</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X22" t="n">
-        <v>3982.26826644407</v>
+        <v>1329.059451906822</v>
       </c>
       <c r="Y22" t="n">
-        <v>3757.532567832835</v>
+        <v>1104.323753295587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.1097701603972</v>
+        <v>573.4391700005397</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1264.944239496945</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>1264.944239496945</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>1264.944239496945</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>985.8745750058193</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>985.8745750058193</v>
       </c>
       <c r="Y25" t="n">
-        <v>323.8094765544416</v>
+        <v>761.138876394584</v>
       </c>
     </row>
     <row r="26">
@@ -6251,22 +6253,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
         <v>2873.060806957647</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>423.8317148059963</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C28" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1436.250826191383</v>
+        <v>1577.983228298</v>
       </c>
       <c r="T28" t="n">
-        <v>1436.250826191383</v>
+        <v>1338.434489274702</v>
       </c>
       <c r="U28" t="n">
-        <v>1153.452678737507</v>
+        <v>1055.636341820827</v>
       </c>
       <c r="V28" t="n">
-        <v>879.5669336770293</v>
+        <v>781.7505967603486</v>
       </c>
       <c r="W28" t="n">
-        <v>879.5669336770293</v>
+        <v>502.6809322692229</v>
       </c>
       <c r="X28" t="n">
-        <v>641.2230715367127</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="Y28" t="n">
-        <v>611.5314212000407</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>581.1949163979062</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.611467366206</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1143.062728342908</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>860.2645808890319</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V31" t="n">
-        <v>860.2645808890319</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W31" t="n">
-        <v>581.1949163979062</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="X31" t="n">
-        <v>581.1949163979062</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y31" t="n">
-        <v>581.1949163979062</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="33">
@@ -6789,7 +6791,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9746261193704</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6883,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>913.9039397142094</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V34" t="n">
-        <v>640.0181946537314</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W34" t="n">
-        <v>640.0181946537314</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X34" t="n">
-        <v>401.6743325134148</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="Y34" t="n">
-        <v>401.6743325134148</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2512.458907120301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -7023,10 +7025,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>898.981111021629</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C37" t="n">
-        <v>727.8877385833455</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D37" t="n">
-        <v>568.3930939062554</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E37" t="n">
-        <v>407.4822787745749</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F37" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U37" t="n">
-        <v>1339.844446857597</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V37" t="n">
-        <v>1339.844446857597</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W37" t="n">
-        <v>1311.416516026909</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X37" t="n">
-        <v>1311.416516026909</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y37" t="n">
-        <v>1086.680817415673</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>209.5897435862967</v>
+        <v>607.6240057411241</v>
       </c>
       <c r="C40" t="n">
-        <v>209.5897435862967</v>
+        <v>436.5306333028406</v>
       </c>
       <c r="D40" t="n">
-        <v>209.5897435862967</v>
+        <v>277.0359886257506</v>
       </c>
       <c r="E40" t="n">
-        <v>209.5897435862967</v>
+        <v>277.0359886257506</v>
       </c>
       <c r="F40" t="n">
-        <v>209.5897435862967</v>
+        <v>277.0359886257506</v>
       </c>
       <c r="G40" t="n">
-        <v>209.5897435862967</v>
+        <v>277.0359886257506</v>
       </c>
       <c r="H40" t="n">
         <v>209.5897435862967</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W40" t="n">
-        <v>360.9485301626057</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X40" t="n">
-        <v>209.5897435862967</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.5897435862967</v>
+        <v>607.6240057411241</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1803.829406121353</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1393.704815434623</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>989.240885527684</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>574.9006700445807</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F41" t="n">
-        <v>153.8702579982682</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G41" t="n">
-        <v>67.98781915067264</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>67.98781915067264</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>513.6690936739171</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1226.260493486155</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2002.579084477909</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2755.760101116527</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3399.390957533632</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3399.390957533632</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3399.390957533632</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3399.390957533632</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3015.6306566688</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2614.987258837753</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2214.050585785843</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>260.8006767133058</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>260.8006767133058</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>260.8006767133058</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>260.8006767133058</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N42" t="n">
-        <v>819.2545126041184</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>1523.211603150013</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2084.917495638543</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2084.917495638543</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1869.992060912782</v>
+        <v>4054.565279729366</v>
       </c>
       <c r="C43" t="n">
-        <v>1869.992060912782</v>
+        <v>3883.471907291082</v>
       </c>
       <c r="D43" t="n">
-        <v>1869.992060912782</v>
+        <v>3723.977262613992</v>
       </c>
       <c r="E43" t="n">
-        <v>1869.992060912782</v>
+        <v>3563.066447482312</v>
       </c>
       <c r="F43" t="n">
-        <v>1869.992060912782</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G43" t="n">
-        <v>1869.992060912782</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H43" t="n">
-        <v>1869.992060912782</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>1869.992060912782</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>1884.074610317993</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>2038.626938040231</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>2298.524038320291</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>2587.788094760785</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>2868.626877155035</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>3128.187487481509</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>3333.862927731121</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>3314.118239209032</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>3127.726471088942</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T43" t="n">
-        <v>2888.177732065644</v>
+        <v>4337.363427183242</v>
       </c>
       <c r="U43" t="n">
-        <v>2605.379584611768</v>
+        <v>4054.565279729366</v>
       </c>
       <c r="V43" t="n">
-        <v>2331.49383955129</v>
+        <v>4054.565279729366</v>
       </c>
       <c r="W43" t="n">
-        <v>2052.424175060164</v>
+        <v>4054.565279729366</v>
       </c>
       <c r="X43" t="n">
-        <v>1869.992060912782</v>
+        <v>4054.565279729366</v>
       </c>
       <c r="Y43" t="n">
-        <v>1869.992060912782</v>
+        <v>4054.565279729366</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1830.102147727145</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C44" t="n">
-        <v>1419.977557040415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1015.513627133475</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>601.1734116503721</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>378.8963165229546</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>378.8963165229546</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>67.98781915067264</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>89.98375106283095</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>628.1432521718705</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1340.734651984108</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2117.053242975862</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2870.23425961448</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2870.23425961448</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3399.390957533632</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3264.109882327733</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3041.903398274592</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3041.903398274592</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3041.903398274592</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3041.903398274592</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2641.260000443544</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2240.323327391634</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>909.3370811402466</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N45" t="n">
-        <v>1750.686343129821</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>1750.686343129821</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.4866513977266</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>388.3932789594431</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>228.8986342823532</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>82.07036855588316</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>236.6226962781211</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>496.5197965581817</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>785.783852998675</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1066.622635392925</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1326.1832457194</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1531.858685969012</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1597.386715771523</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1597.386715771523</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.335583034449</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.265918543323</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>971.9220564030063</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>747.186357791771</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>230.7561945635731</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
@@ -8064,13 +8066,13 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8079,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8228,7 +8230,7 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>594.1598684051008</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
@@ -8237,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>72.04887768380517</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730673</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8313,7 +8315,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>264.6720532994221</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>457.6255605606137</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8465,10 +8467,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8535,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>491.4496229341746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629451</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8699,19 +8701,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>394.9174802192111</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,13 +8777,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>563.8095800162273</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>903.0411327771579</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8939,16 +8941,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>649.9096037382171</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>563.8095800162273</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>903.0411327771579</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>531.174398074769</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10437,10 +10439,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10671,13 +10673,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10905,22 +10907,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>539.319495252252</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11075,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11145,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N42" t="n">
-        <v>617.2881771218434</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.5417043758921</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11309,16 +11311,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,16 +11384,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>907.4120231218254</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N45" t="n">
-        <v>903.0411327771579</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>421.7249601253816</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>148.7637448156641</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>134.6641349775762</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>42.28485917990162</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>269.0292596024694</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.06664624006481</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23716,7 +23718,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>39.1226091266597</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.291223203093153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>96.1449467781861</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>62.56142803888719</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>112.9538072864466</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24190,7 +24192,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>129.8409629771977</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>126.945026968824</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24379,7 +24381,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>151.9797219469255</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24649,10 +24651,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>140.3150780855509</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>193.0936077918176</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24850,10 +24852,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>31.31702590442868</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>5.21491632419503</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>88.57144222862047</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>49.85881956944058</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>209.7999067317755</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>248.1353163238326</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25564,7 +25566,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>81.33959805353854</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>86.11522480836749</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>319.6173868069765</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>50.69642746052288</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>55.35263051300529</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.36515802722619</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>196.765783749706</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26074,13 +26076,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>164.1762662001697</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>505863.1060345147</v>
+        <v>608262.2018236967</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>505863.1060345148</v>
+        <v>608262.2018236966</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608262.2018236966</v>
+        <v>608262.2018236964</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608262.2018236967</v>
+        <v>608262.2018236966</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608262.2018236968</v>
+        <v>608262.2018236967</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608262.2018236966</v>
+        <v>608262.2018236965</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608262.2018236966</v>
+        <v>608262.2018236967</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>505863.1060345147</v>
+        <v>608262.2018236965</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>505863.106034515</v>
+        <v>608262.2018236967</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>456070.7004908794</v>
+      </c>
+      <c r="C2" t="n">
         <v>456070.7004908795</v>
-      </c>
-      <c r="C2" t="n">
-        <v>456070.7004908794</v>
       </c>
       <c r="D2" t="n">
         <v>456070.7004908795</v>
       </c>
       <c r="E2" t="n">
-        <v>337242.070689677</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="F2" t="n">
-        <v>337242.0706896767</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="G2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.1345491312</v>
       </c>
       <c r="H2" t="n">
         <v>405508.1345491312</v>
@@ -26335,25 +26337,25 @@
         <v>405508.1345491314</v>
       </c>
       <c r="J2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="K2" t="n">
         <v>405508.1345491313</v>
       </c>
-      <c r="K2" t="n">
-        <v>405508.1345491314</v>
-      </c>
       <c r="L2" t="n">
-        <v>405508.1345491312</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="M2" t="n">
         <v>405508.1345491313</v>
       </c>
       <c r="N2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="O2" t="n">
-        <v>337242.0706896768</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="P2" t="n">
-        <v>337242.0706896767</v>
+        <v>405508.1345491315</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>101819.596420627</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.9541809342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86528.21837027799</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82959.22311976596</v>
+        <v>139999.3108647528</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.2647740474</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>97479.54409185084</v>
+        <v>57848.94447198559</v>
       </c>
       <c r="E4" t="n">
-        <v>588.8733412700683</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>588.8733412700683</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>588.8733412700684</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>588.8733412700683</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>85298.34255451121</v>
+        <v>99001.07135520027</v>
       </c>
       <c r="E5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60627.75431107074</v>
+        <v>60627.75431107072</v>
       </c>
       <c r="C6" t="n">
         <v>235583.2642041848</v>
       </c>
       <c r="D6" t="n">
-        <v>171473.2174238905</v>
+        <v>127393.2157536252</v>
       </c>
       <c r="E6" t="n">
-        <v>284982.4547938957</v>
+        <v>306935.8421931791</v>
       </c>
       <c r="F6" t="n">
-        <v>284982.4547938955</v>
+        <v>333904.7963741134</v>
       </c>
       <c r="G6" t="n">
-        <v>247376.5780038355</v>
+        <v>333904.7963741132</v>
       </c>
       <c r="H6" t="n">
         <v>333904.7963741132</v>
       </c>
       <c r="I6" t="n">
-        <v>333904.7963741134</v>
+        <v>333904.7963741135</v>
       </c>
       <c r="J6" t="n">
         <v>197309.9955682184</v>
       </c>
       <c r="K6" t="n">
-        <v>333904.7963741135</v>
+        <v>333904.7963741134</v>
       </c>
       <c r="L6" t="n">
-        <v>250945.5732543473</v>
+        <v>193905.4855093606</v>
       </c>
       <c r="M6" t="n">
-        <v>333904.7963741133</v>
+        <v>311395.5316000659</v>
       </c>
       <c r="N6" t="n">
         <v>333904.7963741134</v>
       </c>
       <c r="O6" t="n">
-        <v>284982.4547938955</v>
+        <v>333904.7963741134</v>
       </c>
       <c r="P6" t="n">
-        <v>284982.4547938954</v>
+        <v>333904.7963741135</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>849.847739383408</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>327.7841690133825</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>315.6984817493769</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>327.7841690133824</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>327.7841690133825</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>315.6984817493769</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>220.1620625474623</v>
       </c>
       <c r="D2" t="n">
-        <v>206.5204902295177</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27439,13 +27441,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>103.2029451308201</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27546,16 +27548,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27590,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>249.7105586462403</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>231.7439112705373</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>77.37334774151495</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>89.07601400262527</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>118.9301394969255</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>166.283111295365</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>42.17604845728107</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28011,13 +28013,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>157.0557345277765</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>63.53491764696355</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179.3869557635731</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
@@ -34784,13 +34786,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>500.9700927793177</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35033,7 +35035,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>191.3484619661142</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>362.1401624977689</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35185,10 +35187,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>435.3350991233256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629451</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35419,19 +35421,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>302.0051894625918</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>506.2452962778099</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>849.847739383408</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35659,16 +35661,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>556.719828112434</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>506.2452962778099</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>849.847739383408</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363516</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>450.1831055790349</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37795,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N42" t="n">
-        <v>564.0947837280935</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>22.21811304258415</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38029,16 +38031,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>849.847739383408</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N45" t="n">
-        <v>849.847739383408</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>367.4653251225778</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2132482.412660089</v>
+        <v>2131169.76720451</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7252303.141472841</v>
+        <v>7252303.141472842</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>185.8612822324002</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -718,7 +718,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>313.7662019063779</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>66.17949358308059</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>168.6753793373327</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>255.8805510757192</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>117.0302840219879</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.294963789395883</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1147,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>362.464952808815</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.129193841209276</v>
       </c>
       <c r="C10" t="n">
-        <v>12.32670418612418</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1353,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>269.9562877695847</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>96.0851398248662</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>24.63757200278755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>147.4466302442449</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1618,13 +1618,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1767,19 +1767,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.4831388005703</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1903,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2010,19 +2010,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>120.179097853704</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>55.69551283691951</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>177.3516742227375</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>211.6544656203731</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2140,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>254.6941322358787</v>
       </c>
       <c r="X22" t="n">
-        <v>106.1194605417157</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>416.0636588831783</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2481,7 +2481,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>143.4115540199572</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>85.17352968613943</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2623,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>44.21277235333793</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>168.1993594315271</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>14.3166270057376</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3012,7 +3012,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>271.0640515220193</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>317.5475256392241</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>89.22591226264488</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.68843489334748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>309.8783980016761</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3280,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>269.9562877695847</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3325,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>27.77250173713467</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3489,7 +3489,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3666,19 +3666,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>66.77178258905937</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3711,25 +3711,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>157.5985724967912</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.415915004750343</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>112.2883871699918</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -4033,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>208.933067249405</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>104.4245127126517</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261.9049799331252</v>
+        <v>484.2909016982387</v>
       </c>
       <c r="C2" t="n">
         <v>74.16631101150881</v>
@@ -4333,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.706230480572</v>
+        <v>1292.051748205281</v>
       </c>
       <c r="W2" t="n">
-        <v>1473.706230480572</v>
+        <v>1292.051748205281</v>
       </c>
       <c r="X2" t="n">
-        <v>1073.062832649525</v>
+        <v>891.408350374234</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.1261595976147</v>
+        <v>490.4716773223241</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.227134123859</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N3" t="n">
         <v>1221.566882129794</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>273.2441848352538</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1203.093116471976</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1203.093116471976</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>924.02345198085</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>685.6795898405335</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.9438912292982</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>1142.108628778666</v>
       </c>
       <c r="C5" t="n">
-        <v>244.1219561927843</v>
+        <v>731.9840380919362</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>731.5605122254008</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>317.2202967422975</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>300.2302887363891</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4576,16 +4576,16 @@
         <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.404399595914</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>1552.329808443156</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960218</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960218</v>
       </c>
       <c r="K6" t="n">
         <v>41.76508562960205</v>
@@ -4658,10 +4658,10 @@
         <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.9689777942758</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>474.9689777942758</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>474.9689777942758</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>474.9689777942758</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
         <v>474.9689777942758</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>780.8810922913383</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>662.6686841883202</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>662.6686841883202</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2499.363348604062</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2089.238757917332</v>
+        <v>1734.580567010892</v>
       </c>
       <c r="D8" t="n">
-        <v>1684.774828010392</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>1270.434612527289</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>849.4042004809767</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225776</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502956</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
         <v>340.2031969351231</v>
@@ -4810,46 +4810,46 @@
         <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.881458916954</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908708</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547326</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.011922964431</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883582</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678874</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368439</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368439</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368439</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4043.825781627949</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3693.98822696443</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3310.227926099598</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2909.584528268551</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2909.584528268551</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
         <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736878</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736878</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>86.01772546736878</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>928.9948061619355</v>
+        <v>278.830583030002</v>
       </c>
       <c r="N9" t="n">
-        <v>1802.652898273553</v>
+        <v>837.2844189208142</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1541.241509466709</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1016.709419679842</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>1004.258203330222</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>844.7635586531319</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>683.8527435214513</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>519.2216176320426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>351.971226557586</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4989,25 +4989,25 @@
         <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1530.143903763618</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1290.59516474032</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1290.59516474032</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="V10" t="n">
-        <v>1016.709419679842</v>
+        <v>830.3176515597527</v>
       </c>
       <c r="W10" t="n">
-        <v>1016.709419679842</v>
+        <v>551.247987068627</v>
       </c>
       <c r="X10" t="n">
-        <v>1016.709419679842</v>
+        <v>312.9041249283104</v>
       </c>
       <c r="Y10" t="n">
-        <v>1016.709419679842</v>
+        <v>88.1684263170751</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G11" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4565.129187738346</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4342.922703685204</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>2126.665136613434</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.3145881425788</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C13" t="n">
-        <v>561.2212157042953</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D13" t="n">
-        <v>401.7265710272054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>1383.093855288175</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.093855288175</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.093855288175</v>
+        <v>491.0822045080294</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.749993147859</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.0142945366232</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H14" t="n">
         <v>179.5954603735497</v>
@@ -5369,10 +5369,10 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>518.69184345793</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>518.69184345793</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G16" t="n">
         <v>359.19719878084</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1487.811140977564</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1487.811140977564</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1205.012993523688</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>931.1272484632096</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>931.1272484632096</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>931.1272484632096</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>706.3915498519743</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
         <v>347.4291691583771</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>971.9663885568499</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C19" t="n">
-        <v>971.9663885568499</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D19" t="n">
-        <v>812.47174387976</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1196.702087168085</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1196.702087168085</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1196.702087168085</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1196.702087168085</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.9663885568499</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2452.075282119331</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C20" t="n">
-        <v>2041.950691432601</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D20" t="n">
-        <v>1637.486761525662</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1223.146546042558</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>802.1161339962459</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>393.3878498890781</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>4047.636833531609</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3663.876532666778</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>3263.23313483573</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2862.29646178382</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.6240469015422</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="C22" t="n">
-        <v>745.5306744632587</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.250826191383</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>1436.250826191383</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W22" t="n">
-        <v>1436.250826191383</v>
+        <v>1082.577646619336</v>
       </c>
       <c r="X22" t="n">
-        <v>1329.059451906822</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="Y22" t="n">
-        <v>1104.323753295587</v>
+        <v>844.2337844790193</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G23" t="n">
         <v>179.5954603735497</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>573.4391700005397</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C25" t="n">
-        <v>402.3457975622561</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D25" t="n">
-        <v>242.8511528851661</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E25" t="n">
-        <v>242.8511528851661</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F25" t="n">
-        <v>242.8511528851661</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1264.944239496945</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>1264.944239496945</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V25" t="n">
-        <v>1264.944239496945</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W25" t="n">
-        <v>985.8745750058193</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X25" t="n">
-        <v>985.8745750058193</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.138876394584</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6259,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.3370701289063</v>
+        <v>700.9659052272521</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>700.9659052272521</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>541.471260550162</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1577.983228298</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1338.434489274702</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1055.636341820827</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V28" t="n">
-        <v>781.7505967603486</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W28" t="n">
-        <v>502.6809322692229</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X28" t="n">
-        <v>264.3370701289063</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y28" t="n">
-        <v>264.3370701289063</v>
+        <v>700.9659052272521</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6490,10 +6490,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U29" t="n">
         <v>4408.238733368956</v>
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1421.789586791648</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1138.991439337772</v>
       </c>
       <c r="V31" t="n">
-        <v>554.7454763291312</v>
+        <v>865.1056942772943</v>
       </c>
       <c r="W31" t="n">
-        <v>280.9434040846672</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="X31" t="n">
-        <v>280.9434040846672</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="Y31" t="n">
-        <v>280.9434040846672</v>
+        <v>586.0360297861687</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>497.6094628782566</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>497.6094628782566</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>497.6094628782566</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>497.6094628782566</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>332.9783369888478</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>332.9783369888478</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>183.3708817943045</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U34" t="n">
-        <v>1383.093855288175</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V34" t="n">
-        <v>1383.093855288175</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W34" t="n">
-        <v>1383.093855288175</v>
+        <v>735.9533250185732</v>
       </c>
       <c r="X34" t="n">
-        <v>1383.093855288175</v>
+        <v>497.6094628782566</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>497.6094628782566</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6973,16 +6973,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1594.589562253761</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1355.040823230463</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1072.242675776587</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>798.3569307161094</v>
       </c>
       <c r="W37" t="n">
-        <v>3315.218102057671</v>
+        <v>519.2872662249838</v>
       </c>
       <c r="X37" t="n">
-        <v>3132.785987910289</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y37" t="n">
-        <v>3132.785987910289</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F38" t="n">
-        <v>873.3089913790386</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N39" t="n">
-        <v>754.331869609911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O39" t="n">
-        <v>1228.182536368609</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.6240057411241</v>
+        <v>855.8325122402127</v>
       </c>
       <c r="C40" t="n">
-        <v>436.5306333028406</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="D40" t="n">
-        <v>277.0359886257506</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E40" t="n">
-        <v>277.0359886257506</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F40" t="n">
-        <v>277.0359886257506</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G40" t="n">
-        <v>277.0359886257506</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
         <v>209.5897435862967</v>
@@ -7359,25 +7359,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>1111.429368843485</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V40" t="n">
-        <v>1111.429368843485</v>
+        <v>855.8325122402127</v>
       </c>
       <c r="W40" t="n">
-        <v>832.3597043523594</v>
+        <v>855.8325122402127</v>
       </c>
       <c r="X40" t="n">
-        <v>832.3597043523594</v>
+        <v>855.8325122402127</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.6240057411241</v>
+        <v>855.8325122402127</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F41" t="n">
-        <v>452.2785793327262</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>562.1177108836107</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4054.565279729366</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="C43" t="n">
-        <v>3883.471907291082</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D43" t="n">
-        <v>3723.977262613992</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>3563.066447482312</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4337.363427183242</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>4054.565279729366</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V43" t="n">
-        <v>4054.565279729366</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W43" t="n">
-        <v>4054.565279729366</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="X43" t="n">
-        <v>4054.565279729366</v>
+        <v>644.9515544994629</v>
       </c>
       <c r="Y43" t="n">
-        <v>4054.565279729366</v>
+        <v>420.2158558882276</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
         <v>2139.066799289355</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
         <v>2139.732893541123</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>592.4982763350433</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>826.4099627738212</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W46" t="n">
-        <v>547.3402982826956</v>
+        <v>1243.27754348064</v>
       </c>
       <c r="X46" t="n">
-        <v>308.996436142379</v>
+        <v>1004.933681340323</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.2436976906228</v>
+        <v>780.1979827290877</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>198.9610844237786</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>67.6779873391382</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8224,19 +8224,19 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8306,13 +8306,13 @@
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>554.1634861730673</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8458,7 +8458,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>457.6255605606137</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>95.03437871917777</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8540,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>617.2881771218431</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629451</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>67.45938947521694</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8932,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -9017,13 +9017,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>558.8606699624394</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>247.7181192045195</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>204.5506456092455</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10436,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10688,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>536.3885161299984</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747688</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11162,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>134.6847134965114</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>37.84312462897394</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>134.6641349775762</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>128.8323376019694</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>51.04471163831855</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>39.1226091266597</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>166.7928287882034</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>96.1449467781861</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>21.58483561033566</v>
       </c>
       <c r="X22" t="n">
-        <v>129.8409629771977</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.7564490426710222</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>14.48814421036192</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>151.9797219469255</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>140.3150780855509</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>54.28898219359581</v>
       </c>
     </row>
     <row r="29">
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U29" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24846,13 +24846,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.8366246273273</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>5.21491632419503</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.57144222862047</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>25.95667317407222</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.7999067317755</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>96.14494677818641</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>156.7553487017542</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>81.33959805353854</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>113.548315113082</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>184.4067943253536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>50.69642746052288</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>171.8544551335627</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608262.2018236964</v>
+        <v>608262.2018236967</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608262.2018236967</v>
+        <v>608262.2018236966</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608262.2018236965</v>
+        <v>608262.2018236967</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>608262.2018236965</v>
+        <v>608262.2018236966</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>456070.7004908792</v>
+      </c>
+      <c r="C2" t="n">
         <v>456070.7004908794</v>
       </c>
-      <c r="C2" t="n">
-        <v>456070.7004908795</v>
-      </c>
       <c r="D2" t="n">
-        <v>456070.7004908795</v>
+        <v>456070.7004908794</v>
       </c>
       <c r="E2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="F2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491315</v>
       </c>
       <c r="G2" t="n">
-        <v>405508.1345491312</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="H2" t="n">
-        <v>405508.1345491312</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="I2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.1345491315</v>
       </c>
       <c r="J2" t="n">
         <v>405508.1345491314</v>
@@ -26343,19 +26343,19 @@
         <v>405508.1345491313</v>
       </c>
       <c r="L2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491312</v>
       </c>
       <c r="M2" t="n">
         <v>405508.1345491313</v>
       </c>
       <c r="N2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="O2" t="n">
         <v>405508.1345491313</v>
       </c>
       <c r="P2" t="n">
-        <v>405508.1345491315</v>
+        <v>405508.1345491314</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.9541809342</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647528</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.2647740474</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>57848.94447198559</v>
+        <v>57848.94447198568</v>
       </c>
       <c r="E4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="F4" t="n">
         <v>738.1279301446466</v>
@@ -26450,7 +26450,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520027</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60627.75431107072</v>
+        <v>60627.75431107051</v>
       </c>
       <c r="C6" t="n">
         <v>235583.2642041848</v>
       </c>
       <c r="D6" t="n">
-        <v>127393.2157536252</v>
+        <v>127393.215753625</v>
       </c>
       <c r="E6" t="n">
-        <v>306935.8421931791</v>
+        <v>306755.2616005301</v>
       </c>
       <c r="F6" t="n">
-        <v>333904.7963741134</v>
+        <v>333724.2157814644</v>
       </c>
       <c r="G6" t="n">
-        <v>333904.7963741132</v>
+        <v>333724.2157814643</v>
       </c>
       <c r="H6" t="n">
-        <v>333904.7963741132</v>
+        <v>333724.2157814644</v>
       </c>
       <c r="I6" t="n">
-        <v>333904.7963741135</v>
+        <v>333724.2157814644</v>
       </c>
       <c r="J6" t="n">
-        <v>197309.9955682184</v>
+        <v>197129.4149755694</v>
       </c>
       <c r="K6" t="n">
-        <v>333904.7963741134</v>
+        <v>333724.2157814642</v>
       </c>
       <c r="L6" t="n">
-        <v>193905.4855093606</v>
+        <v>193724.9049167114</v>
       </c>
       <c r="M6" t="n">
-        <v>311395.5316000659</v>
+        <v>311214.9510074168</v>
       </c>
       <c r="N6" t="n">
-        <v>333904.7963741134</v>
+        <v>333724.2157814643</v>
       </c>
       <c r="O6" t="n">
-        <v>333904.7963741134</v>
+        <v>333724.2157814642</v>
       </c>
       <c r="P6" t="n">
-        <v>333904.7963741135</v>
+        <v>333724.2157814643</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067513</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067512</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067513</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>220.1620625474623</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>32.57297721050622</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>103.2029451308201</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27548,7 +27548,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>231.7439112705373</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>148.760450190377</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -27836,13 +27836,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>118.9301394969255</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>399.7283809904667</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>42.17604845728107</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>183.6935154888947</v>
       </c>
       <c r="C10" t="n">
-        <v>157.0557345277765</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34944,19 +34944,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35026,13 +35026,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>362.1401624977689</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>564.0947837280931</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629451</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>13.19975447241319</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35737,13 +35737,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>194.5247258107695</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>478.6370371299984</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
